--- a/ScheduleCreator/files/Libro2.xlsx
+++ b/ScheduleCreator/files/Libro2.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://espolec-my.sharepoint.com/personal/daelsand_espol_edu_ec/Documents/Random/Schedule-Creator/ScheduleCreator/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{00C203ED-3ABA-40AC-AE98-AC11561635F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="8_{00C203ED-3ABA-40AC-AE98-AC11561635F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06B03EF2-7A26-4ECE-9E9D-B1A32DF3DCBE}"/>
   <bookViews>
-    <workbookView xWindow="8700" yWindow="1875" windowWidth="19905" windowHeight="11490" xr2:uid="{73BF6E89-4323-4ECB-82A6-76EDAE96EB69}"/>
+    <workbookView xWindow="4470" yWindow="1875" windowWidth="19905" windowHeight="11490" activeTab="1" xr2:uid="{73BF6E89-4323-4ECB-82A6-76EDAE96EB69}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
     <t>Profesor1</t>
   </si>
@@ -84,14 +85,70 @@
   </si>
   <si>
     <t>8:00-10:00</t>
+  </si>
+  <si>
+    <t>1000x600</t>
+  </si>
+  <si>
+    <t>LUNES</t>
+  </si>
+  <si>
+    <t>MARTES</t>
+  </si>
+  <si>
+    <t>MIERCOLES</t>
+  </si>
+  <si>
+    <t>JUEVES</t>
+  </si>
+  <si>
+    <t>VIERNES</t>
+  </si>
+  <si>
+    <t>07-09</t>
+  </si>
+  <si>
+    <t>50*0</t>
+  </si>
+  <si>
+    <t>09-11</t>
+  </si>
+  <si>
+    <t>90*2</t>
+  </si>
+  <si>
+    <t>11-13</t>
+  </si>
+  <si>
+    <t>90*4</t>
+  </si>
+  <si>
+    <t>13-15</t>
+  </si>
+  <si>
+    <t>90*6</t>
+  </si>
+  <si>
+    <t>15-17</t>
+  </si>
+  <si>
+    <t>90*8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -119,9 +176,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -137,6 +196,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -458,7 +521,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7166399-0EC9-4B17-B7BD-642236536908}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -553,4 +616,200 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{880EA1FB-616D-422A-8FEE-6E0FF9CF7DC2}">
+  <dimension ref="A1:I15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1">
+        <v>100</v>
+      </c>
+      <c r="I1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2">
+        <v>100</v>
+      </c>
+      <c r="I2">
+        <f>$H2+$I1</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3">
+        <v>100</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I7" si="0">$H3+$I2</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4">
+        <v>100</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5">
+        <v>100</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6">
+        <v>100</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>150</v>
+      </c>
+      <c r="B8">
+        <v>150</v>
+      </c>
+      <c r="C8">
+        <v>150</v>
+      </c>
+      <c r="D8">
+        <v>150</v>
+      </c>
+      <c r="E8">
+        <v>150</v>
+      </c>
+      <c r="F8">
+        <v>150</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>150</v>
+      </c>
+      <c r="B9">
+        <f>A$9+B$8</f>
+        <v>300</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ref="C9:F9" si="1">B$9+C$8</f>
+        <v>450</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>750</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>900</v>
+      </c>
+      <c r="G9">
+        <f>F$9+G$8</f>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G15" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>